--- a/五运六气/十干五行配合表.xlsx
+++ b/五运六气/十干五行配合表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Chinese_Culture\五运六气\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01BB78A9-BB1B-458B-B8A1-80FA57B8AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9056784D-EC09-4FE7-BD46-AFBB7488BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="19680" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{686AF852-65C9-4422-8DEC-D9EA9F1262FB}"/>
+    <workbookView xWindow="-28920" yWindow="19680" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{686AF852-65C9-4422-8DEC-D9EA9F1262FB}"/>
   </bookViews>
   <sheets>
     <sheet name="五行" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="十干五行配合表" sheetId="5" r:id="rId5"/>
     <sheet name="地支" sheetId="2" r:id="rId6"/>
     <sheet name="甲子表" sheetId="3" r:id="rId7"/>
+    <sheet name="十二支月建五行所属" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="99">
   <si>
     <t>甲</t>
   </si>
@@ -261,6 +262,84 @@
   </si>
   <si>
     <t>冬</t>
+  </si>
+  <si>
+    <t>月份</t>
+  </si>
+  <si>
+    <t>月十一</t>
+  </si>
+  <si>
+    <t>月十二</t>
+  </si>
+  <si>
+    <t>月一</t>
+  </si>
+  <si>
+    <t>月二</t>
+  </si>
+  <si>
+    <t>月三</t>
+  </si>
+  <si>
+    <t>月四</t>
+  </si>
+  <si>
+    <t>月五</t>
+  </si>
+  <si>
+    <t>月六</t>
+  </si>
+  <si>
+    <t>月七</t>
+  </si>
+  <si>
+    <t>月八</t>
+  </si>
+  <si>
+    <t>月九</t>
+  </si>
+  <si>
+    <t>月十</t>
+  </si>
+  <si>
+    <t>月名</t>
+  </si>
+  <si>
+    <t>冬仲</t>
+  </si>
+  <si>
+    <t>冬季</t>
+  </si>
+  <si>
+    <t>春孟</t>
+  </si>
+  <si>
+    <t>春仲</t>
+  </si>
+  <si>
+    <t>春季</t>
+  </si>
+  <si>
+    <t>夏孟</t>
+  </si>
+  <si>
+    <t>夏仲</t>
+  </si>
+  <si>
+    <t>夏季</t>
+  </si>
+  <si>
+    <t>秋仲</t>
+  </si>
+  <si>
+    <t>秋孟</t>
+  </si>
+  <si>
+    <t>秋季</t>
+  </si>
+  <si>
+    <t>冬孟</t>
   </si>
 </sst>
 </file>
@@ -292,7 +371,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -495,11 +574,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -551,11 +643,147 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="58">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1367,85 +1595,98 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
   <autoFilter ref="A1:B6" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{78414386-8E42-49FA-B1DD-692BD4CAE1C8}" name="五行" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{A3998E14-4AB3-48C8-BD8F-59E116846364}" name="编号" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{78414386-8E42-49FA-B1DD-692BD4CAE1C8}" name="五行" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{A3998E14-4AB3-48C8-BD8F-59E116846364}" name="编号" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{95D242B1-2E67-4564-8AE0-8CAC643C27DC}" name="Table46" displayName="Table46" ref="A1:B6" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{95D242B1-2E67-4564-8AE0-8CAC643C27DC}" name="Table46" displayName="Table46" ref="A1:B6" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
   <autoFilter ref="A1:B6" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B41A2F7B-CCDB-43F2-903B-567E7E4EB953}" name="五方" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{EC05A96E-0D4C-446A-B005-2D58757E8C69}" name="编号" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{B41A2F7B-CCDB-43F2-903B-567E7E4EB953}" name="五方" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{EC05A96E-0D4C-446A-B005-2D58757E8C69}" name="编号" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4F3F5EFE-485D-4EB7-B848-4B2ABBA774DC}" name="Table467" displayName="Table467" ref="A1:B6" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4F3F5EFE-485D-4EB7-B848-4B2ABBA774DC}" name="Table467" displayName="Table467" ref="A1:B6" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:B6" xr:uid="{27DBEB4A-4D94-4F5D-9507-DAB2A16D2645}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6D0FFD84-65BE-4B07-9AB8-730BBBD7C58C}" name="五季" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{E6607446-92B6-4A97-9E6A-B72603A9CC65}" name="编号" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{6D0FFD84-65BE-4B07-9AB8-730BBBD7C58C}" name="五季" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E6607446-92B6-4A97-9E6A-B72603A9CC65}" name="编号" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C2CF018-9ABD-4B7D-A7AA-EFCC9BE62B55}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="33" dataDxfId="49" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C2CF018-9ABD-4B7D-A7AA-EFCC9BE62B55}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="41" dataDxfId="57" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
   <autoFilter ref="A1:D11" xr:uid="{0C2CF018-9ABD-4B7D-A7AA-EFCC9BE62B55}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4D2A3540-D2E1-46F4-879D-A42593F10454}" name="天干" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{88DAD465-9A0F-4BE0-9E94-B25944EC5389}" name="编号" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{1CD23E54-52C6-43A4-9561-818F030DDE55}" name="拼音" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{782EE33B-26D8-472E-B54B-8562F370FD1B}" name="阴阳" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{4D2A3540-D2E1-46F4-879D-A42593F10454}" name="天干" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{88DAD465-9A0F-4BE0-9E94-B25944EC5389}" name="编号" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{1CD23E54-52C6-43A4-9561-818F030DDE55}" name="拼音" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{782EE33B-26D8-472E-B54B-8562F370FD1B}" name="阴阳" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DC5616E0-56DE-4D75-BE4D-A781B3D742BF}" name="Table7" displayName="Table7" ref="A1:D11" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DC5616E0-56DE-4D75-BE4D-A781B3D742BF}" name="Table7" displayName="Table7" ref="A1:D11" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:D11" xr:uid="{DC5616E0-56DE-4D75-BE4D-A781B3D742BF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D869685C-2730-4E56-9E53-97C3C5E20529}" name="天干" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{FD434002-8BB8-41D4-BBEB-9C66A07836B1}" name="五行" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{CDD92BBE-92BD-4FA5-B180-79B7F9ECA08B}" name="五方" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{340E14CC-E561-4A75-9CF1-0130A9869FEF}" name="五季" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D869685C-2730-4E56-9E53-97C3C5E20529}" name="天干" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{FD434002-8BB8-41D4-BBEB-9C66A07836B1}" name="五行" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CDD92BBE-92BD-4FA5-B180-79B7F9ECA08B}" name="五方" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{340E14CC-E561-4A75-9CF1-0130A9869FEF}" name="五季" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="38">
   <autoFilter ref="A1:D13" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5ACF60A3-55E5-443D-9B85-FBF492C102EB}" name="地支" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{B4D4E2EC-9061-425B-80E2-24CC6EC398F1}" name="编号" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{2D3B1A4C-AF83-4113-8F4C-68D255B748CA}" name="拼音" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{7AE6E555-C2BC-4463-A96D-0B7BB9381F14}" name="阴阳" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{5ACF60A3-55E5-443D-9B85-FBF492C102EB}" name="地支" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{B4D4E2EC-9061-425B-80E2-24CC6EC398F1}" name="编号" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{2D3B1A4C-AF83-4113-8F4C-68D255B748CA}" name="拼音" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{7AE6E555-C2BC-4463-A96D-0B7BB9381F14}" name="阴阳" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10AF0C43-A8DE-4216-87B2-8F0DB959B7C0}" name="Table3" displayName="Table3" ref="A1:D61" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10AF0C43-A8DE-4216-87B2-8F0DB959B7C0}" name="Table3" displayName="Table3" ref="A1:D61" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="55" tableBorderDxfId="56" totalsRowBorderDxfId="54">
   <autoFilter ref="A1:D61" xr:uid="{10AF0C43-A8DE-4216-87B2-8F0DB959B7C0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C626788C-4738-4319-A98D-2DB6A38B0113}" name="天干" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{75D140F1-126B-4859-A666-A9E617876826}" name="地支" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{3A3F57C1-FDA7-461C-B4B2-00BF5D86B8D3}" name="编号" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{10375F55-133E-4261-83D9-D2B4F80F5F42}" name="关系" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{C626788C-4738-4319-A98D-2DB6A38B0113}" name="天干" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{75D140F1-126B-4859-A666-A9E617876826}" name="地支" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{3A3F57C1-FDA7-461C-B4B2-00BF5D86B8D3}" name="编号" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{10375F55-133E-4261-83D9-D2B4F80F5F42}" name="关系" dataDxfId="50"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4FD5E785-B8CA-419F-A531-9D8DB9BB64DC}" name="Table29" displayName="Table29" ref="A1:D13" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D13" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F8E6F0F5-CEBF-4DB0-9D54-39902E60AF54}" name="地支" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{187DB119-4726-41BB-A851-179F6AF57CB5}" name="月份" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{C6252174-1D1C-42E5-BCBD-E5A37CE0957C}" name="月名" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{47901056-BDB7-49E7-99D2-7F6409648C51}" name="五行" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2143,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6896C7-36D5-46EC-A815-E1DF47D67898}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3385,4 +3626,208 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EFA96C-141A-40F0-A6DA-1F5D6449B53A}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>